--- a/0_data/9_evaluation/original_data_evaluation.xlsx
+++ b/0_data/9_evaluation/original_data_evaluation.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.45999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>72.45999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>72.45999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>71.69</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="G2" t="n">
         <v>15.9</v>
@@ -497,19 +497,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.45</v>
+        <v>11.04</v>
       </c>
       <c r="C3" t="n">
-        <v>11.45</v>
+        <v>11.04</v>
       </c>
       <c r="D3" t="n">
-        <v>11.45</v>
+        <v>11.04</v>
       </c>
       <c r="E3" t="n">
-        <v>11.31</v>
+        <v>11.04</v>
       </c>
       <c r="F3" t="n">
-        <v>11.19</v>
+        <v>11.04</v>
       </c>
       <c r="G3" t="n">
         <v>11.04</v>
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="C4" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="D4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E4" t="n">
         <v>3.43</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.44</v>
       </c>
       <c r="F4" t="n">
         <v>3.43</v>
@@ -547,19 +547,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.49</v>
+        <v>17.98</v>
       </c>
       <c r="C5" t="n">
-        <v>18.49</v>
+        <v>17.98</v>
       </c>
       <c r="D5" t="n">
-        <v>18.49</v>
+        <v>17.98</v>
       </c>
       <c r="E5" t="n">
-        <v>18.5</v>
+        <v>17.98</v>
       </c>
       <c r="F5" t="n">
-        <v>17.99</v>
+        <v>17.98</v>
       </c>
       <c r="G5" t="n">
         <v>17.98</v>
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.05</v>
+        <v>6.02</v>
       </c>
       <c r="C6" t="n">
-        <v>6.05</v>
+        <v>6.02</v>
       </c>
       <c r="D6" t="n">
-        <v>6.03</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>6.05</v>
+        <v>6.02</v>
       </c>
       <c r="F6" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -628,13 +628,13 @@
         <v>2.4</v>
       </c>
       <c r="D8" t="n">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="E8" t="n">
         <v>2.4</v>
       </c>
       <c r="F8" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
         <v>2.39</v>
@@ -648,78 +648,69 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[ 72599  24891 109685  42472  11620  20318    174  12737   2893   3903
-   1572    126   2557     12    191     81     18     64      0      8
-      2      2      2      3      3      0      0      1      3      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0]</t>
+          <t>[63877 21372 96280 38016 10572 18468   171 11443  2615  3426  1377   106
+  2142     9   166    57    13    40     0     4     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[ 72599  24891 109685  42472  11620  20318    174  12737   2893   3903
-   1572    126   2557     12    191     81     18     64      0      8
-      2      2      2      3      3      0      0      1      3      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0]</t>
+          <t>[63877 21372 96280 38016 10572 18468   171 11443  2615  3426  1377   106
+  2142     9   166    57    13    40     0     4     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[ 73971  24890 109687  42472  11621  20319    175  12738   2895   3902
-   1572    126   2557     12    191     81     18     64      0      8
-      2      2      2      3      3      0      0      1      3      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0]</t>
+          <t>[65103 21371 96282 38016 10573 18469   172 11444  2615  3425  1377   106
+  2142     9   166    57    13    40     0     4     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[ 66573  23161 102725  39778  10810  18821    162  12048   2743   3687
-   1472    106   2361     12    174     67     17     62      0      8
-      2      1      2      3      3      0      0      1      3      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0]</t>
+          <t>[63877 21372 96280 38016 10572 18468   171 11443  2615  3426  1377   106
+  2142     9   166    57    13    40     0     4     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[ 69361  23377 104381  40565  10902  19328    166  12021   2748   3620
-   1455    121   2374      9    183     71     14     42      0      4
-      0      1      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0]</t>
+          <t>[63877 21372 96280 38016 10572 18468   171 11443  2615  3426  1377   106
+  2142     9   166    57    13    40     0     4     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -738,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[26990 22659 28748 24545 27367 25823 23714 29096 21749 27184 22690 26274]</t>
+          <t>[49582   941 47326   810 52450 10581  1207 42837  1151 45813   658 17601]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[26990 22659 28748 24545 27367 25823 23714 29096 21749 27184 22690 26274]</t>
+          <t>[49582   941 47326   810 52450 10581  1207 42837  1151 45813   658 17601]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[27138 22757 28886 24619 27493 25901 23838 29225 21877 27314 22786 26383]</t>
+          <t>[49849   948 47530   811 52734 10590  1211 42969  1152 46096   659 17638]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[52432  1068 49650   912 55359 11314  1268 45051  1259 48021   719 18594]</t>
+          <t>[49582   941 47326   810 52450 10581  1207 42837  1151 45813   658 17601]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[25712 21412 27214 23076 26326 24545 22647 27712 20465 26002 21417 25073]</t>
+          <t>[49582   941 47326   810 52450 10581  1207 42837  1151 45813   658 17601]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -775,27 +766,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'C': 26990, 'C#': 22659, 'D': 28748, 'D#': 24545, 'E': 27367, 'F': 25823, 'F#': 23714, 'G': 29096, 'G#': 21749, 'A': 27184, 'A#': 22690, 'B': 26274}</t>
+          <t>{'C': 49582, 'C#': 941, 'D': 47326, 'D#': 810, 'E': 52450, 'F': 10581, 'F#': 1207, 'G': 42837, 'G#': 1151, 'A': 45813, 'A#': 658, 'B': 17601}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'C': 26990, 'C#': 22659, 'D': 28748, 'D#': 24545, 'E': 27367, 'F': 25823, 'F#': 23714, 'G': 29096, 'G#': 21749, 'A': 27184, 'A#': 22690, 'B': 26274}</t>
+          <t>{'C': 49582, 'C#': 941, 'D': 47326, 'D#': 810, 'E': 52450, 'F': 10581, 'F#': 1207, 'G': 42837, 'G#': 1151, 'A': 45813, 'A#': 658, 'B': 17601}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'C': 27138, 'C#': 22757, 'D': 28886, 'D#': 24619, 'E': 27493, 'F': 25901, 'F#': 23838, 'G': 29225, 'G#': 21877, 'A': 27314, 'A#': 22786, 'B': 26383}</t>
+          <t>{'C': 49849, 'C#': 948, 'D': 47530, 'D#': 811, 'E': 52734, 'F': 10590, 'F#': 1211, 'G': 42969, 'G#': 1152, 'A': 46096, 'A#': 659, 'B': 17638}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'C': 52432, 'C#': 1068, 'D': 49650, 'D#': 912, 'E': 55359, 'F': 11314, 'F#': 1268, 'G': 45051, 'G#': 1259, 'A': 48021, 'A#': 719, 'B': 18594}</t>
+          <t>{'C': 49582, 'C#': 941, 'D': 47326, 'D#': 810, 'E': 52450, 'F': 10581, 'F#': 1207, 'G': 42837, 'G#': 1151, 'A': 45813, 'A#': 658, 'B': 17601}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'C': 25712, 'C#': 21412, 'D': 27214, 'D#': 23076, 'E': 26326, 'F': 24545, 'F#': 22647, 'G': 27712, 'G#': 20465, 'A': 26002, 'A#': 21417, 'B': 25073}</t>
+          <t>{'C': 49582, 'C#': 941, 'D': 47326, 'D#': 810, 'E': 52450, 'F': 10581, 'F#': 1207, 'G': 42837, 'G#': 1151, 'A': 45813, 'A#': 658, 'B': 17601}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -811,19 +802,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.89</v>
+        <v>5.94</v>
       </c>
       <c r="C12" t="n">
-        <v>127.89</v>
+        <v>5.94</v>
       </c>
       <c r="D12" t="n">
-        <v>128.47</v>
+        <v>5.95</v>
       </c>
       <c r="E12" t="n">
-        <v>6.18</v>
+        <v>5.94</v>
       </c>
       <c r="F12" t="n">
-        <v>127.06</v>
+        <v>5.94</v>
       </c>
       <c r="G12" t="n">
         <v>5.95</v>
@@ -837,85 +828,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[6276  829 4841 1918  674 1346   16 1704  626 2524 4597 1536]
- [ 998 5448 1069 4141 1631  497 1093   12 1137  626 1691 4240]
- [5600 1271 7023  961 5043 1955  685 1689   17 1552  538 2338]
- [2076 4614 1146 6024 1055 4323 1663  573 1173   17 1198  613]
- [ 725 1708 5949 1237 6616 1055 4077 2189  572 1564   14 1590]
- [1363  622 2162 4890 1285 6426  705 4656 1668  559 1390   16]
- [  18 1234  860 1856 4851  856 6001 1074 3346 1654  359 1541]
- [1566   15 1362  667 2520 5411 1355 7578  891 5164 1751  728]
- [ 491 1021   11 1182  565 1957 4143 1081 5203  758 3674 1597]
- [2397  482 1603   12 1645  668 1911 5758 1011 6250  831 4547]
- [4131 1485  524 1110   10 1241  574 1871 4218 1049 5643  768]
- [1279 3865 2120  484 1390   16 1433  824 1817 5371  932 6671]]</t>
+          <t>[[12718    83 12841    57  4222   664    10  3406    48  8602   131  6425]
+ [   84   215   124   162    41    56    19     2    44    30    75    56]
+ [13925   118 11156    31 14566   637    79  3027     8  2174    20  1552]
+ [   41   195    90   156    38   195     6     3    43     0    41     0]
+ [ 4670    33 16380    45 12565  3568   288  9350    74  4386     2  1055]
+ [  383    55   590   245  4229  2425    67  1829   141   517    44    52]
+ [    2    11    86    11   372    78   237   197    47   113    12    37]
+ [ 3338     2  2948    18 10215  2203   245 10892    71 11973    17   890]
+ [   19    44    20    44    87   137    36    58   310   214   149    29]
+ [ 8710    27  2231     8  5089   489   160 12069   173 12160    36  4392]
+ [  111    84     3    32     4    59     6    22   145    47   110    26]
+ [ 5419    74   829     0   782    61    54  1789    47  5439    21  3075]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[[6276  829 4841 1918  674 1346   16 1704  626 2524 4597 1536]
- [ 998 5448 1069 4141 1631  497 1093   12 1137  626 1691 4240]
- [5600 1271 7023  961 5043 1955  685 1689   17 1552  538 2338]
- [2076 4614 1146 6024 1055 4323 1663  573 1173   17 1198  613]
- [ 725 1708 5949 1237 6616 1055 4077 2189  572 1564   14 1590]
- [1363  622 2162 4890 1285 6426  705 4656 1668  559 1390   16]
- [  18 1234  860 1856 4851  856 6001 1074 3346 1654  359 1541]
- [1566   15 1362  667 2520 5411 1355 7578  891 5164 1751  728]
- [ 491 1021   11 1182  565 1957 4143 1081 5203  758 3674 1597]
- [2397  482 1603   12 1645  668 1911 5758 1011 6250  831 4547]
- [4131 1485  524 1110   10 1241  574 1871 4218 1049 5643  768]
- [1279 3865 2120  484 1390   16 1433  824 1817 5371  932 6671]]</t>
+          <t>[[12718    83 12841    57  4222   664    10  3406    48  8602   131  6425]
+ [   84   215   124   162    41    56    19     2    44    30    75    56]
+ [13925   118 11156    31 14566   637    79  3027     8  2174    20  1552]
+ [   41   195    90   156    38   195     6     3    43     0    41     0]
+ [ 4670    33 16380    45 12565  3568   288  9350    74  4386     2  1055]
+ [  383    55   590   245  4229  2425    67  1829   141   517    44    52]
+ [    2    11    86    11   372    78   237   197    47   113    12    37]
+ [ 3338     2  2948    18 10215  2203   245 10892    71 11973    17   890]
+ [   19    44    20    44    87   137    36    58   310   214   149    29]
+ [ 8710    27  2231     8  5089   489   160 12069   173 12160    36  4392]
+ [  111    84     3    32     4    59     6    22   145    47   110    26]
+ [ 5419    74   829     0   782    61    54  1789    47  5439    21  3075]]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>[[6424  829 4841 1918  674 1346   16 1704  626 2524 4597 1536]
- [ 998 5546 1069 4141 1631  497 1093   12 1137  626 1691 4240]
- [5600 1271 7161  961 5043 1955  685 1689   17 1552  538 2338]
- [2076 4614 1146 6096 1054 4323 1663  573 1173   17 1200  614]
- [ 725 1708 5949 1237 6742 1055 4077 2189  572 1564   14 1590]
- [1363  622 2162 4890 1285 6504  705 4656 1668  559 1390   16]
- [  18 1234  860 1856 4851  856 6125 1074 3346 1654  359 1541]
- [1566   15 1362  668 2520 5411 1355 7707  891 5164 1750  728]
- [ 491 1021   11 1182  565 1957 4143 1081 5331  758 3674 1597]
- [2397  482 1603   12 1645  668 1911 5758 1011 6379  831 4548]
- [4131 1485  524 1110   11 1241  574 1871 4218 1049 5738  768]
- [1279 3865 2120  485 1390   16 1433  824 1817 5372  932 6778]]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[[13420   100 13275    62  4508   697    10  3470    54  9193   147  7104]
- [   99   238   137   170    41    69    22     2    50    36   110    56]
- [15202   138 11474    36 15232   659    82  3135    11  2097    19  1529]
- [   45   245    98   171    39   218     8     5    47     0    34     0]
- [ 4611    33 17898    49 13125  3768   299  9737    78  4622     2  1100]
- [  412    47   562   314  4690  2615    71  1829   144   533    49    44]
- [    2    11    85     8   394    97   249   202    50   116    12    38]
- [ 3575     2  2934    15 10882  2416   259 11453    67 12489    15   919]
- [   19    45    20    44    94   161    46    59   347   225   161    34]
- [ 9038    28  2316     8  5290   496   159 13073   193 12552    36  4552]
- [  119   106     3    34     4    54     7    25   169    48   113    26]
- [ 5720    75   818     0   807    57    56  1855    49  5944    21  3180]]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>[[6056  769 4563 1837  655 1295   16 1595  585 2384 4385 1477]
- [ 921 5168 1009 3851 1604  460 1021   12 1060  595 1587 4051]
- [5310 1200 6649  865 4857 1795  661 1572   11 1480  483 2258]
- [1976 4291 1008 5713  999 4153 1546  546 1093   15 1115  556]
- [ 684 1664 5761 1145 6353  970 3947 2112  529 1530   14 1548]
- [1291  597 2035 4636 1172 6195  670 4470 1584  499 1301   16]
- [  18 1160  807 1724 4688  817 5724 1063 3168 1622  336 1461]
- [1506   15 1284  630 2437 5139 1317 7206  842 4867 1685  701]
- [ 465  951   11 1114  526 1835 3928 1018 4922  699 3431 1504]
- [2248  471 1481   12 1618  620 1852 5472  965 6070  759 4365]
- [3951 1407  475 1039   10 1184  540 1771 3911  980 5356  730]
- [1219 3657 2058  452 1326   16 1370  791 1732 5167  893 6323]]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t>[[12984    83 12841    57  4222   664    10  3407    48  8602   131  6425]
  [   84   222   124   162    41    56    19     2    44    30    75    56]
@@ -931,6 +874,54 @@
  [ 5419    74   829     0   782    62    54  1789    47  5440    21  3110]]</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[[12718    83 12841    57  4222   664    10  3406    48  8602   131  6425]
+ [   84   215   124   162    41    56    19     2    44    30    75    56]
+ [13925   118 11156    31 14566   637    79  3027     8  2174    20  1552]
+ [   41   195    90   156    38   195     6     3    43     0    41     0]
+ [ 4670    33 16380    45 12565  3568   288  9350    74  4386     2  1055]
+ [  383    55   590   245  4229  2425    67  1829   141   517    44    52]
+ [    2    11    86    11   372    78   237   197    47   113    12    37]
+ [ 3338     2  2948    18 10215  2203   245 10892    71 11973    17   890]
+ [   19    44    20    44    87   137    36    58   310   214   149    29]
+ [ 8710    27  2231     8  5089   489   160 12069   173 12160    36  4392]
+ [  111    84     3    32     4    59     6    22   145    47   110    26]
+ [ 5419    74   829     0   782    61    54  1789    47  5439    21  3075]]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[[12718    83 12841    57  4222   664    10  3406    48  8602   131  6425]
+ [   84   215   124   162    41    56    19     2    44    30    75    56]
+ [13925   118 11156    31 14566   637    79  3027     8  2174    20  1552]
+ [   41   195    90   156    38   195     6     3    43     0    41     0]
+ [ 4670    33 16380    45 12565  3568   288  9350    74  4386     2  1055]
+ [  383    55   590   245  4229  2425    67  1829   141   517    44    52]
+ [    2    11    86    11   372    78   237   197    47   113    12    37]
+ [ 3338     2  2948    18 10215  2203   245 10892    71 11973    17   890]
+ [   19    44    20    44    87   137    36    58   310   214   149    29]
+ [ 8710    27  2231     8  5089   489   160 12069   173 12160    36  4392]
+ [  111    84     3    32     4    59     6    22   145    47   110    26]
+ [ 5419    74   829     0   782    61    54  1789    47  5439    21  3075]]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[[12984    83 12841    57  4222   664    10  3407    48  8602   131  6425]
+ [   84   222   124   162    41    56    19     2    44    30    75    56]
+ [13925   118 11360    31 14566   637    79  3027     8  2174    20  1552]
+ [   41   195    90   157    38   195     6     3    43     0    41     0]
+ [ 4671    33 16380    45 12849  3567   288  9349    74  4386     2  1056]
+ [  383    55   590   245  4229  2434    67  1829   141   517    44    52]
+ [    2    11    86    11   372    78   241   197    47   113    12    37]
+ [ 3338     2  2948    18 10215  2203   245 11024    71 11973    17   890]
+ [   19    44    20    44    87   137    36    58   311   214   149    29]
+ [ 8710    27  2231     8  5089   489   160 12069   173 12442    36  4393]
+ [  111    84     3    32     4    59     6    22   145    47   111    26]
+ [ 5419    74   829     0   782    62    54  1789    47  5440    21  3110]]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -939,19 +930,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.18</v>
+        <v>337.43</v>
       </c>
       <c r="C14" t="n">
-        <v>340.18</v>
+        <v>337.43</v>
       </c>
       <c r="D14" t="n">
-        <v>341.7</v>
+        <v>338.96</v>
       </c>
       <c r="E14" t="n">
-        <v>338.04</v>
+        <v>337.43</v>
       </c>
       <c r="F14" t="n">
-        <v>339.86</v>
+        <v>337.43</v>
       </c>
       <c r="G14" t="n">
         <v>338.96</v>
@@ -964,19 +955,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.71</v>
+        <v>5.66</v>
       </c>
       <c r="C15" t="n">
-        <v>5.71</v>
+        <v>5.66</v>
       </c>
       <c r="D15" t="n">
-        <v>5.68</v>
+        <v>5.64</v>
       </c>
       <c r="E15" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="F15" t="n">
-        <v>5.7</v>
+        <v>5.66</v>
       </c>
       <c r="G15" t="n">
         <v>5.64</v>
@@ -989,19 +980,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="D16" t="n">
         <v>3.02</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="G16" t="n">
         <v>3.02</v>
@@ -1015,42 +1006,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[  8421  71373 132095  22202  36386   2855   8567   2135   7605   1009
-   2266    565   3088    463   1520    382   2864    206    651    134
-    410     59    162     32    254     21     58     11     94     12
-     29      8]</t>
+          <t>[  9368  57188 119509  19885  32545   2554   7685   1813   6833    891
+   1961    507   2748    422   1368    338   2609    195    560    127
+    368     61    142     25    243     18     52     12     82     11
+     26      8]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[  7837  79798 116454  29947  36441   3713   7349   2534   7551   1134
-   1962    764   3084    588   1314    458   2872    258    565    169
-    410     85    140     23    257     23     52     13     92     19
-     25      6]</t>
+          <t>[  9528  63706 105457  27230  32582   3332   6612   2130   6786   1000
+   1710    670   2748    539   1176    400   2624    207    519    155
+    368     73    132     18    245     20     49     11     82     17
+     22      6]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[  8467  71421 132254  22241  36524   2872   8628   2141   7698   1013
-   2283    567   3106    463   1525    385   4195    160    491     95
-    272     42    101     26    161     17     41      9     76     12
-     24      5]</t>
+          <t>[  9408  57233 119651  19925  32673   2576   7740   1816   6921    895
+   1975    511   2763    422   1371    341   3798    152    417     87
+    240     39     87     22    155     14     38      8     67     11
+     23      5]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[  6764  66439 123390  20662  34199   2715   8054   1967   7173    939
-   2118    539   2882    438   1423    359   2717    198    616    132
-    381     57    149     30    246     18     57     10     85     11
+          <t>[  9368  57188 119509  19885  32545   2554   7685   1813   6833    891
+   1961    507   2748    422   1368    338   2609    195    560    127
+    368     61    142     25    243     18     52     12     82     11
      26      8]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[  7805  67563 126350  20767  34617   2690   8177   1971   7226    941
-   2103    530   2953    445   1465    360   2749    197    594    128
-    397     58    155     27    249     21     53     11     92     12
-     29      8]</t>
+          <t>[  9368  57188 119509  19885  32545   2554   7685   1813   6833    891
+   1961    507   2748    422   1368    338   2609    195    560    127
+    368     61    142     25    243     18     52     12     82     11
+     26      8]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1069,19 +1060,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.84</v>
+        <v>4.87</v>
       </c>
       <c r="C18" t="n">
-        <v>6.56</v>
+        <v>6.71</v>
       </c>
       <c r="D18" t="n">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="E18" t="n">
-        <v>4.84</v>
+        <v>4.87</v>
       </c>
       <c r="F18" t="n">
-        <v>4.84</v>
+        <v>4.87</v>
       </c>
       <c r="G18" t="n">
         <v>6.34</v>
@@ -1095,57 +1086,52 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[  6623 109660  45556  69447  12390  16271      5  19181      3   4362
-   2279   4281   1574   1757      3   3709      1   1136    557   1331
-    575    663      1   1450      0    508    249    537    227    291
-      0    717      0    173     81    252     36     72      0    193
-      0     47     36     90     25     24      0    110      0     25
-     23     42      8     10      0     44      0     10      9     24
-      6      8      0    147]</t>
+          <t>[ 3376 91004 47704 61850 11103 14380     0 16872     0  3950  1990  3799
+  1426  1500     0  3350     0  1023   512  1157   510   598     0  1274
+     0   441   227   486   197   251     0   640     5   165    69   220
+    31    71     1   172     4    39    36    78    24    22     1   101
+     0    21    15    36     8    10     1    38     0    10     7    18
+     3     8     0   123]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[   100 113854      0  71776      0  16271      0  64724      0   4375
-      0   4281      0   1759      0  16097      0   1136      0   1331
-      0    668      1   1450      0    511    249    537    227    291
-      0   2996      0    173     81    252     36     75      0   1764
-      0     47     36     91     25     26      0    110      0     26
-     23     42      8     10      0    601      0     10      9     24
-      6     10      0    720]</t>
+          <t>[   71 93570     0 62589     0 14380     0 64575     0  3951     0  3799
+     0  1500     0 14453     0  1023     0  1157     0   598     0  1274
+     0   441   227   486   197   251     0  2629     5   166    69   220
+    31    71     1  1598     4    39    36    78    24    22     1   101
+     0    21    15    36     8    10     1   550     0    10     7    18
+     3     8     0   633]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[  6657 109813  45631  69679  12422  16332      5  19361      3   4399
-   2311   4362   1592   1778      3   3816      1   1156    577   1371
-    581    673      1   1493      0    516    257    560    232    299
-      0   2336      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0      0      0      0      0      0      0
-      0      0      0      0]</t>
+          <t>[ 3410 91152 47768 62050 11130 14440     1 17032     4  3980  2022  3869
+  1443  1519     1  3447     0  1040   525  1191   516   608     1  1312
+     0   449   233   503   200   259     0  2082     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[  5936 101564  42517  64874  11691  15109      5  17993      3   4111
-   2101   4012   1495   1614      3   3519      1   1058    537   1232
-    537    627      1   1341      0    454    235    512    206    270
-      0    683      0    171     72    246     33     71      0    181
-      0     42     34     84     24     22      0    103      0     23
-     20     42      8     10      0     41      0     10      8     23
-      4      8      0    126]</t>
+          <t>[ 3376 91004 47704 61850 11103 14380     0 16872     0  3950  1990  3799
+  1426  1500     0  3350     0  1023   512  1157   510   598     0  1274
+     0   441   227   486   197   251     0   640     5   165    69   220
+    31    71     1   172     4    39    36    78    24    22     1   101
+     0    21    15    36     8    10     1    38     0    10     7    18
+     3     8     0   123]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[  6320 104267  43085  66271  11799  15524      5  18010      1   4185
-   2161   4053   1507   1635      3   3516      1   1099    531   1239
-    550    633      0   1377      0    495    240    509    217    272
-      0    674      0    167     78    228     35     72      0    185
-      0     45     36     86     25     24      0    106      0     23
-     21     38      8     10      0     44      0     10      9     21
-      5      8      0    138]</t>
+          <t>[ 3376 91004 47704 61850 11103 14380     0 16872     0  3950  1990  3799
+  1426  1500     0  3350     0  1023   512  1157   510   598     0  1274
+     0   441   227   486   197   251     0   640     5   165    69   220
+    31    71     1   172     4    39    36    78    24    22     1   101
+     0    21    15    36     8    10     1    38     0    10     7    18
+     3     8     0   123]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1167,27 +1153,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{0: 147, 1: 6623, 2: 109660, 3: 45556, 4: 69447, 5: 12390, 6: 16271, 7: 5, 8: 19181, 9: 3, 10: 4362, 11: 2279, 12: 4281, 13: 1574, 14: 1757, 15: 3, 16: 3709, 17: 1, 18: 1136, 19: 557, 20: 1331, 21: 575, 22: 663, 23: 1, 24: 1450, 25: 0, 26: 508, 27: 249, 28: 537, 29: 227, 30: 291, 31: 0, 32: 717, 33: 0, 34: 173, 35: 81, 36: 252, 37: 36, 38: 72, 39: 0, 40: 193, 41: 0, 42: 47, 43: 36, 44: 90, 45: 25, 46: 24, 47: 0, 48: 110, 49: 0, 50: 25, 51: 23, 52: 42, 53: 8, 54: 10, 55: 0, 56: 44, 57: 0, 58: 10, 59: 9, 60: 24, 61: 6, 62: 8, 63: 0, 64: 147}</t>
+          <t>{0: 123, 1: 3376, 2: 91004, 3: 47704, 4: 61850, 5: 11103, 6: 14380, 7: 0, 8: 16872, 9: 0, 10: 3950, 11: 1990, 12: 3799, 13: 1426, 14: 1500, 15: 0, 16: 3350, 17: 0, 18: 1023, 19: 512, 20: 1157, 21: 510, 22: 598, 23: 0, 24: 1274, 25: 0, 26: 441, 27: 227, 28: 486, 29: 197, 30: 251, 31: 0, 32: 640, 33: 5, 34: 165, 35: 69, 36: 220, 37: 31, 38: 71, 39: 1, 40: 172, 41: 4, 42: 39, 43: 36, 44: 78, 45: 24, 46: 22, 47: 1, 48: 101, 49: 0, 50: 21, 51: 15, 52: 36, 53: 8, 54: 10, 55: 1, 56: 38, 57: 0, 58: 10, 59: 7, 60: 18, 61: 3, 62: 8, 63: 0, 64: 123}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{0: 720, 1: 100, 2: 113854, 3: 0, 4: 71776, 5: 0, 6: 16271, 7: 0, 8: 64724, 9: 0, 10: 4375, 11: 0, 12: 4281, 13: 0, 14: 1759, 15: 0, 16: 16097, 17: 0, 18: 1136, 19: 0, 20: 1331, 21: 0, 22: 668, 23: 1, 24: 1450, 25: 0, 26: 511, 27: 249, 28: 537, 29: 227, 30: 291, 31: 0, 32: 2996, 33: 0, 34: 173, 35: 81, 36: 252, 37: 36, 38: 75, 39: 0, 40: 1764, 41: 0, 42: 47, 43: 36, 44: 91, 45: 25, 46: 26, 47: 0, 48: 110, 49: 0, 50: 26, 51: 23, 52: 42, 53: 8, 54: 10, 55: 0, 56: 601, 57: 0, 58: 10, 59: 9, 60: 24, 61: 6, 62: 10, 63: 0, 64: 720}</t>
+          <t>{0: 633, 1: 71, 2: 93570, 3: 0, 4: 62589, 5: 0, 6: 14380, 7: 0, 8: 64575, 9: 0, 10: 3951, 11: 0, 12: 3799, 13: 0, 14: 1500, 15: 0, 16: 14453, 17: 0, 18: 1023, 19: 0, 20: 1157, 21: 0, 22: 598, 23: 0, 24: 1274, 25: 0, 26: 441, 27: 227, 28: 486, 29: 197, 30: 251, 31: 0, 32: 2629, 33: 5, 34: 166, 35: 69, 36: 220, 37: 31, 38: 71, 39: 1, 40: 1598, 41: 4, 42: 39, 43: 36, 44: 78, 45: 24, 46: 22, 47: 1, 48: 101, 49: 0, 50: 21, 51: 15, 52: 36, 53: 8, 54: 10, 55: 1, 56: 550, 57: 0, 58: 10, 59: 7, 60: 18, 61: 3, 62: 8, 63: 0, 64: 633}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 6657, 2: 109813, 3: 45631, 4: 69679, 5: 12422, 6: 16332, 7: 5, 8: 19361, 9: 3, 10: 4399, 11: 2311, 12: 4362, 13: 1592, 14: 1778, 15: 3, 16: 3816, 17: 1, 18: 1156, 19: 577, 20: 1371, 21: 581, 22: 673, 23: 1, 24: 1493, 25: 0, 26: 516, 27: 257, 28: 560, 29: 232, 30: 299, 31: 0, 32: 2336}</t>
+          <t>{0: 0, 1: 3410, 2: 91152, 3: 47768, 4: 62050, 5: 11130, 6: 14440, 7: 1, 8: 17032, 9: 4, 10: 3980, 11: 2022, 12: 3869, 13: 1443, 14: 1519, 15: 1, 16: 3447, 17: 0, 18: 1040, 19: 525, 20: 1191, 21: 516, 22: 608, 23: 1, 24: 1312, 25: 0, 26: 449, 27: 233, 28: 503, 29: 200, 30: 259, 31: 0, 32: 2082}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{0: 126, 1: 5936, 2: 101564, 3: 42517, 4: 64874, 5: 11691, 6: 15109, 7: 5, 8: 17993, 9: 3, 10: 4111, 11: 2101, 12: 4012, 13: 1495, 14: 1614, 15: 3, 16: 3519, 17: 1, 18: 1058, 19: 537, 20: 1232, 21: 537, 22: 627, 23: 1, 24: 1341, 25: 0, 26: 454, 27: 235, 28: 512, 29: 206, 30: 270, 31: 0, 32: 683, 33: 0, 34: 171, 35: 72, 36: 246, 37: 33, 38: 71, 39: 0, 40: 181, 41: 0, 42: 42, 43: 34, 44: 84, 45: 24, 46: 22, 47: 0, 48: 103, 49: 0, 50: 23, 51: 20, 52: 42, 53: 8, 54: 10, 55: 0, 56: 41, 57: 0, 58: 10, 59: 8, 60: 23, 61: 4, 62: 8, 63: 0, 64: 126}</t>
+          <t>{0: 123, 1: 3376, 2: 91004, 3: 47704, 4: 61850, 5: 11103, 6: 14380, 7: 0, 8: 16872, 9: 0, 10: 3950, 11: 1990, 12: 3799, 13: 1426, 14: 1500, 15: 0, 16: 3350, 17: 0, 18: 1023, 19: 512, 20: 1157, 21: 510, 22: 598, 23: 0, 24: 1274, 25: 0, 26: 441, 27: 227, 28: 486, 29: 197, 30: 251, 31: 0, 32: 640, 33: 5, 34: 165, 35: 69, 36: 220, 37: 31, 38: 71, 39: 1, 40: 172, 41: 4, 42: 39, 43: 36, 44: 78, 45: 24, 46: 22, 47: 1, 48: 101, 49: 0, 50: 21, 51: 15, 52: 36, 53: 8, 54: 10, 55: 1, 56: 38, 57: 0, 58: 10, 59: 7, 60: 18, 61: 3, 62: 8, 63: 0, 64: 123}</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{0: 138, 1: 6320, 2: 104267, 3: 43085, 4: 66271, 5: 11799, 6: 15524, 7: 5, 8: 18010, 9: 1, 10: 4185, 11: 2161, 12: 4053, 13: 1507, 14: 1635, 15: 3, 16: 3516, 17: 1, 18: 1099, 19: 531, 20: 1239, 21: 550, 22: 633, 23: 0, 24: 1377, 25: 0, 26: 495, 27: 240, 28: 509, 29: 217, 30: 272, 31: 0, 32: 674, 33: 0, 34: 167, 35: 78, 36: 228, 37: 35, 38: 72, 39: 0, 40: 185, 41: 0, 42: 45, 43: 36, 44: 86, 45: 25, 46: 24, 47: 0, 48: 106, 49: 0, 50: 23, 51: 21, 52: 38, 53: 8, 54: 10, 55: 0, 56: 44, 57: 0, 58: 10, 59: 9, 60: 21, 61: 5, 62: 8, 63: 0, 64: 138}</t>
+          <t>{0: 123, 1: 3376, 2: 91004, 3: 47704, 4: 61850, 5: 11103, 6: 14380, 7: 0, 8: 16872, 9: 0, 10: 3950, 11: 1990, 12: 3799, 13: 1426, 14: 1500, 15: 0, 16: 3350, 17: 0, 18: 1023, 19: 512, 20: 1157, 21: 510, 22: 598, 23: 0, 24: 1274, 25: 0, 26: 441, 27: 227, 28: 486, 29: 197, 30: 251, 31: 0, 32: 640, 33: 5, 34: 165, 35: 69, 36: 220, 37: 31, 38: 71, 39: 1, 40: 172, 41: 4, 42: 39, 43: 36, 44: 78, 45: 24, 46: 22, 47: 1, 48: 101, 49: 0, 50: 21, 51: 15, 52: 36, 53: 8, 54: 10, 55: 1, 56: 38, 57: 0, 58: 10, 59: 7, 60: 18, 61: 3, 62: 8, 63: 0, 64: 123}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1204,57 +1190,57 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[[  188  2598  1236 ...     1     0     0]
- [ 3226 59183 14199 ...     2     0     1]
- [  191 13632 12845 ...     0     0     4]
+          <t>[[   37   747   548 ...     1     0     3]
+ [  527 48331 13544 ...     2     0     0]
+ [  173 12985 16797 ...     0     0     4]
  ...
  [    0     0     1 ...     0     0     0]
  [    0     0     0 ...     0     0     0]
- [    1     4     5 ...     1     0    15]]</t>
+ [    1     2     5 ...     1     0    13]]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[[    0    40     0 ...     0     0     0]
- [    3 62440     0 ...     3     0    64]
+          <t>[[    0    27     0 ...     0     0     0]
+ [    0 49241     0 ...     3     0    55]
  [    0     0     0 ...     0     0     0]
  ...
- [    0     1     0 ...     0     0     0]
  [    0     0     0 ...     0     0     0]
- [    1   202     0 ...     1     0    21]]</t>
+ [    0     0     0 ...     0     0     0]
+ [    1   179     0 ...     1     0    18]]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[[  188  2599  1239 ...     0     0    20]
- [ 3228 59237 14219 ...    61     0   255]
- [  191 13646 12865 ...    39     0   176]
+          <t>[[   37   748   551 ...     0     0    23]
+ [  529 48385 13564 ...    51     0   205]
+ [  173 12999 16810 ...    34     0   175]
  ...
- [    4    52    39 ...     0     0     3]
+ [    3    43    34 ...     0     0     3]
  [    0     0     0 ...     0     0     0]
- [   35   278   157 ...     9     0   167]]</t>
+ [   35   257   130 ...     9     0   143]]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[[   42  2354  1073 ...     1     0     0]
- [ 2924 54289 13331 ...     2     0     0]
- [  183 12787 11954 ...     0     0     4]
+          <t>[[   37   747   548 ...     1     0     3]
+ [  527 48331 13544 ...     2     0     0]
+ [  173 12985 16797 ...     0     0     4]
  ...
  [    0     0     1 ...     0     0     0]
  [    0     0     0 ...     0     0     0]
- [    1     2     5 ...     1     0    12]]</t>
+ [    1     2     5 ...     1     0    13]]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[[  184  2493  1167 ...     1     0     0]
- [ 3116 56372 13411 ...     2     0     1]
- [  178 12832 12195 ...     0     0     4]
+          <t>[[   37   747   548 ...     1     0     3]
+ [  527 48331 13544 ...     2     0     0]
+ [  173 12985 16797 ...     0     0     4]
  ...
  [    0     0     1 ...     0     0     0]
  [    0     0     0 ...     0     0     0]
- [    1     4     5 ...     1     0    15]]</t>
+ [    1     2     5 ...     1     0    13]]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">

--- a/0_data/9_evaluation/original_data_evaluation.xlsx
+++ b/0_data/9_evaluation/original_data_evaluation.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.90000000000001</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>75.90000000000001</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>75.90000000000001</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>75.90000000000001</v>
+        <v>71.62</v>
       </c>
       <c r="F2" t="n">
-        <v>15.9</v>
+        <v>16.06</v>
       </c>
       <c r="G2" t="n">
         <v>15.9</v>
@@ -622,19 +622,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="C8" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="D8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E8" t="n">
         <v>2.39</v>
       </c>
-      <c r="E8" t="n">
-        <v>2.4</v>
-      </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="G8" t="n">
         <v>2.39</v>
@@ -648,8 +648,8 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[63877 21372 96280 38016 10572 18468   171 11443  2615  3426  1377   106
-  2142     9   166    57    13    40     0     4     0     0     0     0
+          <t>[63462 21680 97648 37916 10106 17879   154 11345  2601  3411  1355   102
+  2180     9   166    57    13    40     0     4     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -663,8 +663,8 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[63877 21372 96280 38016 10572 18468   171 11443  2615  3426  1377   106
-  2142     9   166    57    13    40     0     4     0     0     0     0
+          <t>[63462 21680 97648 37916 10106 17879   154 11345  2601  3411  1355   102
+  2180     9   166    57    13    40     0     4     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -678,8 +678,8 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[65103 21371 96282 38016 10573 18469   172 11444  2615  3425  1377   106
-  2142     9   166    57    13    40     0     4     0     0     0     0
+          <t>[64688 21679 97650 37916 10107 17880   155 11346  2601  3410  1355   102
+  2180     9   166    57    13    40     0     4     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -693,8 +693,8 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[63877 21372 96280 38016 10572 18468   171 11443  2615  3426  1377   106
-  2142     9   166    57    13    40     0     4     0     0     0     0
+          <t>[63462 21680 97648 37916 10106 17879   154 11345  2601  3411  1355   102
+  2180     9   166    57    13    40     0     4     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -708,8 +708,8 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[63877 21372 96280 38016 10572 18468   171 11443  2615  3426  1377   106
-  2142     9   166    57    13    40     0     4     0     0     0     0
+          <t>[63462 21680 97648 37916 10106 17879   154 11345  2601  3411  1355   102
+  2180     9   166    57    13    40     0     4     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
@@ -729,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[49582   941 47326   810 52450 10581  1207 42837  1151 45813   658 17601]</t>
+          <t>[24209 19707 25733 21040 24314 22628 20806 26078 18313 24557 20094 23452]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[49582   941 47326   810 52450 10581  1207 42837  1151 45813   658 17601]</t>
+          <t>[24209 19707 25733 21040 24314 22628 20806 26078 18313 24557 20094 23452]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[49849   948 47530   811 52734 10590  1211 42969  1152 46096   659 17638]</t>
+          <t>[24348 19787 25864 21104 24433 22698 20914 26190 18425 24678 20175 23545]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[49582   941 47326   810 52450 10581  1207 42837  1151 45813   658 17601]</t>
+          <t>[49569   940 47325   810 52450 10581  1207 42836  1151 45806   658 17598]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[49582   941 47326   810 52450 10581  1207 42837  1151 45813   658 17601]</t>
+          <t>[24209 19707 25733 21040 24314 22628 20806 26078 18313 24557 20094 23452]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -766,27 +766,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'C': 49582, 'C#': 941, 'D': 47326, 'D#': 810, 'E': 52450, 'F': 10581, 'F#': 1207, 'G': 42837, 'G#': 1151, 'A': 45813, 'A#': 658, 'B': 17601}</t>
+          <t>{'C': 24209, 'C#': 19707, 'D': 25733, 'D#': 21040, 'E': 24314, 'F': 22628, 'F#': 20806, 'G': 26078, 'G#': 18313, 'A': 24557, 'A#': 20094, 'B': 23452}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'C': 49582, 'C#': 941, 'D': 47326, 'D#': 810, 'E': 52450, 'F': 10581, 'F#': 1207, 'G': 42837, 'G#': 1151, 'A': 45813, 'A#': 658, 'B': 17601}</t>
+          <t>{'C': 24209, 'C#': 19707, 'D': 25733, 'D#': 21040, 'E': 24314, 'F': 22628, 'F#': 20806, 'G': 26078, 'G#': 18313, 'A': 24557, 'A#': 20094, 'B': 23452}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'C': 49849, 'C#': 948, 'D': 47530, 'D#': 811, 'E': 52734, 'F': 10590, 'F#': 1211, 'G': 42969, 'G#': 1152, 'A': 46096, 'A#': 659, 'B': 17638}</t>
+          <t>{'C': 24348, 'C#': 19787, 'D': 25864, 'D#': 21104, 'E': 24433, 'F': 22698, 'F#': 20914, 'G': 26190, 'G#': 18425, 'A': 24678, 'A#': 20175, 'B': 23545}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'C': 49582, 'C#': 941, 'D': 47326, 'D#': 810, 'E': 52450, 'F': 10581, 'F#': 1207, 'G': 42837, 'G#': 1151, 'A': 45813, 'A#': 658, 'B': 17601}</t>
+          <t>{'C': 49569, 'C#': 940, 'D': 47325, 'D#': 810, 'E': 52450, 'F': 10581, 'F#': 1207, 'G': 42836, 'G#': 1151, 'A': 45806, 'A#': 658, 'B': 17598}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'C': 49582, 'C#': 941, 'D': 47326, 'D#': 810, 'E': 52450, 'F': 10581, 'F#': 1207, 'G': 42837, 'G#': 1151, 'A': 45813, 'A#': 658, 'B': 17601}</t>
+          <t>{'C': 24209, 'C#': 19707, 'D': 25733, 'D#': 21040, 'E': 24314, 'F': 22628, 'F#': 20806, 'G': 26078, 'G#': 18313, 'A': 24557, 'A#': 20094, 'B': 23452}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.94</v>
+        <v>124.48</v>
       </c>
       <c r="C12" t="n">
-        <v>5.94</v>
+        <v>124.48</v>
       </c>
       <c r="D12" t="n">
-        <v>5.95</v>
+        <v>125.04</v>
       </c>
       <c r="E12" t="n">
         <v>5.94</v>
       </c>
       <c r="F12" t="n">
-        <v>5.94</v>
+        <v>124.48</v>
       </c>
       <c r="G12" t="n">
         <v>5.95</v>
@@ -828,37 +828,85 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[12718    83 12841    57  4222   664    10  3406    48  8602   131  6425]
- [   84   215   124   162    41    56    19     2    44    30    75    56]
- [13925   118 11156    31 14566   637    79  3027     8  2174    20  1552]
- [   41   195    90   156    38   195     6     3    43     0    41     0]
- [ 4670    33 16380    45 12565  3568   288  9350    74  4386     2  1055]
- [  383    55   590   245  4229  2425    67  1829   141   517    44    52]
- [    2    11    86    11   372    78   237   197    47   113    12    37]
- [ 3338     2  2948    18 10215  2203   245 10892    71 11973    17   890]
- [   19    44    20    44    87   137    36    58   310   214   149    29]
- [ 8710    27  2231     8  5089   489   160 12069   173 12160    36  4392]
- [  111    84     3    32     4    59     6    22   145    47   110    26]
- [ 5419    74   829     0   782    61    54  1789    47  5439    21  3075]]</t>
+          <t>[[5708  698 4373 1731  632 1139   16 1516  507 2298 4097 1403]
+ [ 845 4743  923 3478 1513  431  944    9  973  560 1448 3775]
+ [5083 1121 6305  808 4522 1707  631 1514   11 1401  453 2108]
+ [1793 3917  965 5079  901 3908 1406  511  932   15 1036  515]
+ [ 658 1531 5405 1055 5651  902 3699 1987  481 1444   13 1426]
+ [1155  517 1922 4308 1109 5526  600 4212 1484  489 1221   14]
+ [  17 1088  767 1559 4370  740 5038 1021 2854 1592  316 1389]
+ [1430   15 1226  553 2284 4864 1261 6784  695 4612 1593  681]
+ [ 412  854   10 1013  476 1622 3576  869 4227  614 3196 1389]
+ [2178  451 1428   11 1540  608 1806 5210  852 5603  744 4061]
+ [3716 1295  438  978    7 1104  491 1632 3638  967 5064  703]
+ [1152 3420 1902  410 1232   16 1285  732 1604 4875  843 5914]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[[12718    83 12841    57  4222   664    10  3406    48  8602   131  6425]
- [   84   215   124   162    41    56    19     2    44    30    75    56]
- [13925   118 11156    31 14566   637    79  3027     8  2174    20  1552]
- [   41   195    90   156    38   195     6     3    43     0    41     0]
- [ 4670    33 16380    45 12565  3568   288  9350    74  4386     2  1055]
- [  383    55   590   245  4229  2425    67  1829   141   517    44    52]
- [    2    11    86    11   372    78   237   197    47   113    12    37]
- [ 3338     2  2948    18 10215  2203   245 10892    71 11973    17   890]
- [   19    44    20    44    87   137    36    58   310   214   149    29]
- [ 8710    27  2231     8  5089   489   160 12069   173 12160    36  4392]
- [  111    84     3    32     4    59     6    22   145    47   110    26]
- [ 5419    74   829     0   782    61    54  1789    47  5439    21  3075]]</t>
+          <t>[[5708  698 4373 1731  632 1139   16 1516  507 2298 4097 1403]
+ [ 845 4743  923 3478 1513  431  944    9  973  560 1448 3775]
+ [5083 1121 6305  808 4522 1707  631 1514   11 1401  453 2108]
+ [1793 3917  965 5079  901 3908 1406  511  932   15 1036  515]
+ [ 658 1531 5405 1055 5651  902 3699 1987  481 1444   13 1426]
+ [1155  517 1922 4308 1109 5526  600 4212 1484  489 1221   14]
+ [  17 1088  767 1559 4370  740 5038 1021 2854 1592  316 1389]
+ [1430   15 1226  553 2284 4864 1261 6784  695 4612 1593  681]
+ [ 412  854   10 1013  476 1622 3576  869 4227  614 3196 1389]
+ [2178  451 1428   11 1540  608 1806 5210  852 5603  744 4061]
+ [3716 1295  438  978    7 1104  491 1632 3638  967 5064  703]
+ [1152 3420 1902  410 1232   16 1285  732 1604 4875  843 5914]]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>[[5847  698 4373 1731  632 1139   16 1516  507 2298 4097 1403]
+ [ 845 4823  923 3478 1513  431  944    9  973  560 1448 3775]
+ [5083 1121 6436  808 4522 1707  631 1514   11 1401  453 2108]
+ [1793 3917  965 5142  900 3908 1406  511  932   15 1038  515]
+ [ 658 1531 5405 1055 5770  902 3699 1987  481 1444   13 1426]
+ [1155  517 1922 4308 1109 5596  600 4212 1484  489 1221   14]
+ [  17 1088  767 1559 4370  740 5146 1021 2854 1592  316 1389]
+ [1430   15 1226  554 2284 4864 1261 6896  695 4612 1592  681]
+ [ 412  854   10 1013  476 1622 3576  869 4339  614 3196 1389]
+ [2178  451 1428   11 1540  608 1806 5210  852 5723  744 4062]
+ [3716 1295  438  978    8 1104  491 1632 3638  967 5144  703]
+ [1152 3420 1902  410 1232   16 1285  732 1604 4876  843 6006]]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[[12667    83 12644    56  4240   660    10  3288    47  8704   137  6658]
+ [   84   217   124   147    41    59    20     2    39    30    88    56]
+ [14486   118 11064    30 14399   629    79  2988     8  2007    17  1467]
+ [   38   208    91   153    38   192     7     3    44     0    34     0]
+ [ 4341    33 16971    49 12469  3545   284  9237    72  4382     2  1031]
+ [  376    41   526   273  4382  2419    65  1770   136   501    44    44]
+ [    2    11    82     6   379    82   240   195    48   109    12    37]
+ [ 3314     2  2782    14 10376  2278   254 10930    67 11911    15   868]
+ [   19    42    20    41    85   146    37    59   306   219   144    29]
+ [ 8638    27  2194     8  5049   461   151 12432   184 12028    36  4329]
+ [  109    84     3    32     4    51     6    25   153    48   108    26]
+ [ 5333    74   796     0   748    52    54  1713    47  5708    21  3041]]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[[5708  698 4373 1731  632 1139   16 1516  507 2298 4097 1403]
+ [ 845 4743  923 3478 1513  431  944    9  973  560 1448 3775]
+ [5083 1121 6305  808 4522 1707  631 1514   11 1401  453 2108]
+ [1793 3917  965 5079  901 3908 1406  511  932   15 1036  515]
+ [ 658 1531 5405 1055 5651  902 3699 1987  481 1444   13 1426]
+ [1155  517 1922 4308 1109 5526  600 4212 1484  489 1221   14]
+ [  17 1088  767 1559 4370  740 5038 1021 2854 1592  316 1389]
+ [1430   15 1226  553 2284 4864 1261 6784  695 4612 1593  681]
+ [ 412  854   10 1013  476 1622 3576  869 4227  614 3196 1389]
+ [2178  451 1428   11 1540  608 1806 5210  852 5603  744 4061]
+ [3716 1295  438  978    7 1104  491 1632 3638  967 5064  703]
+ [1152 3420 1902  410 1232   16 1285  732 1604 4875  843 5914]]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>[[12984    83 12841    57  4222   664    10  3407    48  8602   131  6425]
  [   84   222   124   162    41    56    19     2    44    30    75    56]
@@ -874,54 +922,6 @@
  [ 5419    74   829     0   782    62    54  1789    47  5440    21  3110]]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[[12718    83 12841    57  4222   664    10  3406    48  8602   131  6425]
- [   84   215   124   162    41    56    19     2    44    30    75    56]
- [13925   118 11156    31 14566   637    79  3027     8  2174    20  1552]
- [   41   195    90   156    38   195     6     3    43     0    41     0]
- [ 4670    33 16380    45 12565  3568   288  9350    74  4386     2  1055]
- [  383    55   590   245  4229  2425    67  1829   141   517    44    52]
- [    2    11    86    11   372    78   237   197    47   113    12    37]
- [ 3338     2  2948    18 10215  2203   245 10892    71 11973    17   890]
- [   19    44    20    44    87   137    36    58   310   214   149    29]
- [ 8710    27  2231     8  5089   489   160 12069   173 12160    36  4392]
- [  111    84     3    32     4    59     6    22   145    47   110    26]
- [ 5419    74   829     0   782    61    54  1789    47  5439    21  3075]]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>[[12718    83 12841    57  4222   664    10  3406    48  8602   131  6425]
- [   84   215   124   162    41    56    19     2    44    30    75    56]
- [13925   118 11156    31 14566   637    79  3027     8  2174    20  1552]
- [   41   195    90   156    38   195     6     3    43     0    41     0]
- [ 4670    33 16380    45 12565  3568   288  9350    74  4386     2  1055]
- [  383    55   590   245  4229  2425    67  1829   141   517    44    52]
- [    2    11    86    11   372    78   237   197    47   113    12    37]
- [ 3338     2  2948    18 10215  2203   245 10892    71 11973    17   890]
- [   19    44    20    44    87   137    36    58   310   214   149    29]
- [ 8710    27  2231     8  5089   489   160 12069   173 12160    36  4392]
- [  111    84     3    32     4    59     6    22   145    47   110    26]
- [ 5419    74   829     0   782    61    54  1789    47  5439    21  3075]]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>[[12984    83 12841    57  4222   664    10  3407    48  8602   131  6425]
- [   84   222   124   162    41    56    19     2    44    30    75    56]
- [13925   118 11360    31 14566   637    79  3027     8  2174    20  1552]
- [   41   195    90   157    38   195     6     3    43     0    41     0]
- [ 4671    33 16380    45 12849  3567   288  9349    74  4386     2  1056]
- [  383    55   590   245  4229  2434    67  1829   141   517    44    52]
- [    2    11    86    11   372    78   241   197    47   113    12    37]
- [ 3338     2  2948    18 10215  2203   245 11024    71 11973    17   890]
- [   19    44    20    44    87   137    36    58   311   214   149    29]
- [ 8710    27  2231     8  5089   489   160 12069   173 12442    36  4393]
- [  111    84     3    32     4    59     6    22   145    47   111    26]
- [ 5419    74   829     0   782    62    54  1789    47  5440    21  3110]]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -930,19 +930,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>337.43</v>
+        <v>337.4</v>
       </c>
       <c r="C14" t="n">
-        <v>337.43</v>
+        <v>337.4</v>
       </c>
       <c r="D14" t="n">
-        <v>338.96</v>
+        <v>338.93</v>
       </c>
       <c r="E14" t="n">
-        <v>337.43</v>
+        <v>337.4</v>
       </c>
       <c r="F14" t="n">
-        <v>337.43</v>
+        <v>337.4</v>
       </c>
       <c r="G14" t="n">
         <v>338.96</v>
@@ -1006,41 +1006,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[  9368  57188 119509  19885  32545   2554   7685   1813   6833    891
-   1961    507   2748    422   1368    338   2609    195    560    127
-    368     61    142     25    243     18     52     12     82     11
+          <t>[  6152  62845 117710  19319  32470   2561   7669   1811   6835    890
+   1964    506   2748    422   1370    337   2604    190    559    126
+    368     56    142     25    241     18     52     10     83     11
      26      8]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[  9528  63706 105457  27230  32582   3332   6612   2130   6786   1000
-   1710    670   2748    539   1176    400   2624    207    519    155
-    368     73    132     18    245     20     49     11     82     17
+          <t>[  5881  69911 103893  26294  32526   3323   6609   2130   6787   1001
+   1710    671   2748    539   1178    399   2619    202    518    154
+    368     68    132     18    243     20     48     10     83     17
      22      6]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[  9408  57233 119651  19925  32673   2576   7740   1816   6921    895
-   1975    511   2763    422   1371    341   3798    152    417     87
+          <t>[  6192  62885 117852  19358  32598   2578   7724   1814   6921    894
+   1978    508   2764    422   1373    340   3793    152    416     87
     240     39     87     22    155     14     38      8     67     11
      23      5]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[  9368  57188 119509  19885  32545   2554   7685   1813   6833    891
-   1961    507   2748    422   1368    338   2609    195    560    127
-    368     61    142     25    243     18     52     12     82     11
+          <t>[  6152  62845 117710  19319  32470   2561   7669   1811   6835    890
+   1964    506   2748    422   1370    337   2604    190    559    126
+    368     56    142     25    241     18     52     10     83     11
      26      8]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[  9368  57188 119509  19885  32545   2554   7685   1813   6833    891
-   1961    507   2748    422   1368    338   2609    195    560    127
-    368     61    142     25    243     18     52     12     82     11
+          <t>[  6152  62845 117710  19319  32470   2561   7669   1811   6835    890
+   1964    506   2748    422   1370    337   2604    190    559    126
+    368     56    142     25    241     18     52     10     83     11
      26      8]</t>
         </is>
       </c>
@@ -1060,19 +1060,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.87</v>
+        <v>4.84</v>
       </c>
       <c r="C18" t="n">
-        <v>6.71</v>
+        <v>6.56</v>
       </c>
       <c r="D18" t="n">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
       <c r="E18" t="n">
-        <v>4.87</v>
+        <v>4.84</v>
       </c>
       <c r="F18" t="n">
-        <v>4.87</v>
+        <v>4.84</v>
       </c>
       <c r="G18" t="n">
         <v>6.34</v>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[ 3376 91004 47704 61850 11103 14380     0 16872     0  3950  1990  3799
-  1426  1500     0  3350     0  1023   512  1157   510   598     0  1274
-     0   441   227   486   197   251     0   640     5   165    69   220
-    31    71     1   172     4    39    36    78    24    22     1   101
-     0    21    15    36     8    10     1    38     0    10     7    18
-     3     8     0   123]</t>
+          <t>[ 5656 96307 40142 61819 11104 14378     5 16864     1  3946  1989  3796
+  1429  1498     3  3347     1  1023   511  1154   512   598     0  1272
+     0   441   226   486   196   251     0   641     0   165    69   223
+    32    71     0   173     0    40    34    80    24    22     0    99
+     0    21    18    38     8    10     0    41     0    10     8    20
+     3     8     0   118]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[   71 93570     0 62589     0 14380     0 64575     0  3951     0  3799
-     0  1500     0 14453     0  1023     0  1157     0   598     0  1274
-     0   441   227   486   197   251     0  2629     5   166    69   220
-    31    71     1  1598     4    39    36    78    24    22     1   101
-     0    21    15    36     8    10     1   550     0    10     7    18
-     3     8     0   633]</t>
+          <t>[   68 99862     0 63852     0 14378     0 56993     0  3959     0  3796
+     0  1500     0 14449     0  1023     0  1154     0   603     0  1272
+     0   442   226   486   196   251     0  2630     0   165    69   223
+    32    74     0  1599     0    40    34    81    24    24     0    99
+     0    22    18    38     8    10     0   552     0    10     8    20
+     3    10     0   628]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[ 3410 91152 47768 62050 11130 14440     1 17032     4  3980  2022  3869
-  1443  1519     1  3447     0  1040   525  1191   516   608     1  1312
-     0   449   233   503   200   259     0  2082     0     0     0     0
+          <t>[ 5686 96455 40206 62023 11132 14438     5 17025     1  3977  2019  3868
+  1446  1517     3  3443     1  1040   527  1190   518   608     0  1312
+     0   449   233   505   199   259     0  2076     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0]</t>
@@ -1116,22 +1116,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[ 3376 91004 47704 61850 11103 14380     0 16872     0  3950  1990  3799
-  1426  1500     0  3350     0  1023   512  1157   510   598     0  1274
-     0   441   227   486   197   251     0   640     5   165    69   220
-    31    71     1   172     4    39    36    78    24    22     1   101
-     0    21    15    36     8    10     1    38     0    10     7    18
-     3     8     0   123]</t>
+          <t>[ 5656 96307 40142 61819 11104 14378     5 16864     1  3946  1989  3796
+  1429  1498     3  3347     1  1023   511  1154   512   598     0  1272
+     0   441   226   486   196   251     0   641     0   165    69   223
+    32    71     0   173     0    40    34    80    24    22     0    99
+     0    21    18    38     8    10     0    41     0    10     8    20
+     3     8     0   118]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[ 3376 91004 47704 61850 11103 14380     0 16872     0  3950  1990  3799
-  1426  1500     0  3350     0  1023   512  1157   510   598     0  1274
-     0   441   227   486   197   251     0   640     5   165    69   220
-    31    71     1   172     4    39    36    78    24    22     1   101
-     0    21    15    36     8    10     1    38     0    10     7    18
-     3     8     0   123]</t>
+          <t>[ 5656 96307 40142 61819 11104 14378     5 16864     1  3946  1989  3796
+  1429  1498     3  3347     1  1023   511  1154   512   598     0  1272
+     0   441   226   486   196   251     0   641     0   165    69   223
+    32    71     0   173     0    40    34    80    24    22     0    99
+     0    21    18    38     8    10     0    41     0    10     8    20
+     3     8     0   118]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1153,27 +1153,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{0: 123, 1: 3376, 2: 91004, 3: 47704, 4: 61850, 5: 11103, 6: 14380, 7: 0, 8: 16872, 9: 0, 10: 3950, 11: 1990, 12: 3799, 13: 1426, 14: 1500, 15: 0, 16: 3350, 17: 0, 18: 1023, 19: 512, 20: 1157, 21: 510, 22: 598, 23: 0, 24: 1274, 25: 0, 26: 441, 27: 227, 28: 486, 29: 197, 30: 251, 31: 0, 32: 640, 33: 5, 34: 165, 35: 69, 36: 220, 37: 31, 38: 71, 39: 1, 40: 172, 41: 4, 42: 39, 43: 36, 44: 78, 45: 24, 46: 22, 47: 1, 48: 101, 49: 0, 50: 21, 51: 15, 52: 36, 53: 8, 54: 10, 55: 1, 56: 38, 57: 0, 58: 10, 59: 7, 60: 18, 61: 3, 62: 8, 63: 0, 64: 123}</t>
+          <t>{0: 118, 1: 5656, 2: 96307, 3: 40142, 4: 61819, 5: 11104, 6: 14378, 7: 5, 8: 16864, 9: 1, 10: 3946, 11: 1989, 12: 3796, 13: 1429, 14: 1498, 15: 3, 16: 3347, 17: 1, 18: 1023, 19: 511, 20: 1154, 21: 512, 22: 598, 23: 0, 24: 1272, 25: 0, 26: 441, 27: 226, 28: 486, 29: 196, 30: 251, 31: 0, 32: 641, 33: 0, 34: 165, 35: 69, 36: 223, 37: 32, 38: 71, 39: 0, 40: 173, 41: 0, 42: 40, 43: 34, 44: 80, 45: 24, 46: 22, 47: 0, 48: 99, 49: 0, 50: 21, 51: 18, 52: 38, 53: 8, 54: 10, 55: 0, 56: 41, 57: 0, 58: 10, 59: 8, 60: 20, 61: 3, 62: 8, 63: 0, 64: 118}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{0: 633, 1: 71, 2: 93570, 3: 0, 4: 62589, 5: 0, 6: 14380, 7: 0, 8: 64575, 9: 0, 10: 3951, 11: 0, 12: 3799, 13: 0, 14: 1500, 15: 0, 16: 14453, 17: 0, 18: 1023, 19: 0, 20: 1157, 21: 0, 22: 598, 23: 0, 24: 1274, 25: 0, 26: 441, 27: 227, 28: 486, 29: 197, 30: 251, 31: 0, 32: 2629, 33: 5, 34: 166, 35: 69, 36: 220, 37: 31, 38: 71, 39: 1, 40: 1598, 41: 4, 42: 39, 43: 36, 44: 78, 45: 24, 46: 22, 47: 1, 48: 101, 49: 0, 50: 21, 51: 15, 52: 36, 53: 8, 54: 10, 55: 1, 56: 550, 57: 0, 58: 10, 59: 7, 60: 18, 61: 3, 62: 8, 63: 0, 64: 633}</t>
+          <t>{0: 628, 1: 68, 2: 99862, 3: 0, 4: 63852, 5: 0, 6: 14378, 7: 0, 8: 56993, 9: 0, 10: 3959, 11: 0, 12: 3796, 13: 0, 14: 1500, 15: 0, 16: 14449, 17: 0, 18: 1023, 19: 0, 20: 1154, 21: 0, 22: 603, 23: 0, 24: 1272, 25: 0, 26: 442, 27: 226, 28: 486, 29: 196, 30: 251, 31: 0, 32: 2630, 33: 0, 34: 165, 35: 69, 36: 223, 37: 32, 38: 74, 39: 0, 40: 1599, 41: 0, 42: 40, 43: 34, 44: 81, 45: 24, 46: 24, 47: 0, 48: 99, 49: 0, 50: 22, 51: 18, 52: 38, 53: 8, 54: 10, 55: 0, 56: 552, 57: 0, 58: 10, 59: 8, 60: 20, 61: 3, 62: 10, 63: 0, 64: 628}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 3410, 2: 91152, 3: 47768, 4: 62050, 5: 11130, 6: 14440, 7: 1, 8: 17032, 9: 4, 10: 3980, 11: 2022, 12: 3869, 13: 1443, 14: 1519, 15: 1, 16: 3447, 17: 0, 18: 1040, 19: 525, 20: 1191, 21: 516, 22: 608, 23: 1, 24: 1312, 25: 0, 26: 449, 27: 233, 28: 503, 29: 200, 30: 259, 31: 0, 32: 2082}</t>
+          <t>{0: 0, 1: 5686, 2: 96455, 3: 40206, 4: 62023, 5: 11132, 6: 14438, 7: 5, 8: 17025, 9: 1, 10: 3977, 11: 2019, 12: 3868, 13: 1446, 14: 1517, 15: 3, 16: 3443, 17: 1, 18: 1040, 19: 527, 20: 1190, 21: 518, 22: 608, 23: 0, 24: 1312, 25: 0, 26: 449, 27: 233, 28: 505, 29: 199, 30: 259, 31: 0, 32: 2076}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{0: 123, 1: 3376, 2: 91004, 3: 47704, 4: 61850, 5: 11103, 6: 14380, 7: 0, 8: 16872, 9: 0, 10: 3950, 11: 1990, 12: 3799, 13: 1426, 14: 1500, 15: 0, 16: 3350, 17: 0, 18: 1023, 19: 512, 20: 1157, 21: 510, 22: 598, 23: 0, 24: 1274, 25: 0, 26: 441, 27: 227, 28: 486, 29: 197, 30: 251, 31: 0, 32: 640, 33: 5, 34: 165, 35: 69, 36: 220, 37: 31, 38: 71, 39: 1, 40: 172, 41: 4, 42: 39, 43: 36, 44: 78, 45: 24, 46: 22, 47: 1, 48: 101, 49: 0, 50: 21, 51: 15, 52: 36, 53: 8, 54: 10, 55: 1, 56: 38, 57: 0, 58: 10, 59: 7, 60: 18, 61: 3, 62: 8, 63: 0, 64: 123}</t>
+          <t>{0: 118, 1: 5656, 2: 96307, 3: 40142, 4: 61819, 5: 11104, 6: 14378, 7: 5, 8: 16864, 9: 1, 10: 3946, 11: 1989, 12: 3796, 13: 1429, 14: 1498, 15: 3, 16: 3347, 17: 1, 18: 1023, 19: 511, 20: 1154, 21: 512, 22: 598, 23: 0, 24: 1272, 25: 0, 26: 441, 27: 226, 28: 486, 29: 196, 30: 251, 31: 0, 32: 641, 33: 0, 34: 165, 35: 69, 36: 223, 37: 32, 38: 71, 39: 0, 40: 173, 41: 0, 42: 40, 43: 34, 44: 80, 45: 24, 46: 22, 47: 0, 48: 99, 49: 0, 50: 21, 51: 18, 52: 38, 53: 8, 54: 10, 55: 0, 56: 41, 57: 0, 58: 10, 59: 8, 60: 20, 61: 3, 62: 8, 63: 0, 64: 118}</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{0: 123, 1: 3376, 2: 91004, 3: 47704, 4: 61850, 5: 11103, 6: 14380, 7: 0, 8: 16872, 9: 0, 10: 3950, 11: 1990, 12: 3799, 13: 1426, 14: 1500, 15: 0, 16: 3350, 17: 0, 18: 1023, 19: 512, 20: 1157, 21: 510, 22: 598, 23: 0, 24: 1274, 25: 0, 26: 441, 27: 227, 28: 486, 29: 197, 30: 251, 31: 0, 32: 640, 33: 5, 34: 165, 35: 69, 36: 220, 37: 31, 38: 71, 39: 1, 40: 172, 41: 4, 42: 39, 43: 36, 44: 78, 45: 24, 46: 22, 47: 1, 48: 101, 49: 0, 50: 21, 51: 15, 52: 36, 53: 8, 54: 10, 55: 1, 56: 38, 57: 0, 58: 10, 59: 7, 60: 18, 61: 3, 62: 8, 63: 0, 64: 123}</t>
+          <t>{0: 118, 1: 5656, 2: 96307, 3: 40142, 4: 61819, 5: 11104, 6: 14378, 7: 5, 8: 16864, 9: 1, 10: 3946, 11: 1989, 12: 3796, 13: 1429, 14: 1498, 15: 3, 16: 3347, 17: 1, 18: 1023, 19: 511, 20: 1154, 21: 512, 22: 598, 23: 0, 24: 1272, 25: 0, 26: 441, 27: 226, 28: 486, 29: 196, 30: 251, 31: 0, 32: 641, 33: 0, 34: 165, 35: 69, 36: 223, 37: 32, 38: 71, 39: 0, 40: 173, 41: 0, 42: 40, 43: 34, 44: 80, 45: 24, 46: 22, 47: 0, 48: 99, 49: 0, 50: 21, 51: 18, 52: 38, 53: 8, 54: 10, 55: 0, 56: 41, 57: 0, 58: 10, 59: 8, 60: 20, 61: 3, 62: 8, 63: 0, 64: 118}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1190,57 +1190,57 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[[   37   747   548 ...     1     0     3]
- [  527 48331 13544 ...     2     0     0]
- [  173 12985 16797 ...     0     0     4]
+          <t>[[   38  2249  1014 ...     1     0     0]
+ [ 2814 51555 12549 ...     2     0     0]
+ [  170 11991 11315 ...     0     0     4]
  ...
  [    0     0     1 ...     0     0     0]
  [    0     0     0 ...     0     0     0]
- [    1     2     5 ...     1     0    13]]</t>
+ [    1     2     5 ...     1     0    12]]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[[    0    27     0 ...     0     0     0]
- [    0 49241     0 ...     3     0    55]
+          <t>[[    0    25     0 ...     0     0     0]
+ [    0 54256     0 ...     3     0    55]
  [    0     0     0 ...     0     0     0]
  ...
+ [    0     1     0 ...     0     0     0]
  [    0     0     0 ...     0     0     0]
+ [    1   185     0 ...     1     0    18]]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[[   38  2250  1017 ...     0     0    20]
+ [ 2816 51609 12569 ...    51     0   217]
+ [  170 12005 11328 ...    34     0   158]
+ ...
+ [    3    41    36 ...     0     0     3]
  [    0     0     0 ...     0     0     0]
- [    1   179     0 ...     1     0    18]]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[[   37   748   551 ...     0     0    23]
- [  529 48385 13564 ...    51     0   205]
- [  173 12999 16810 ...    34     0   175]
- ...
- [    3    43    34 ...     0     0     3]
- [    0     0     0 ...     0     0     0]
- [   35   257   130 ...     9     0   143]]</t>
+ [   31   256   131 ...     9     0   136]]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[[   37   747   548 ...     1     0     3]
- [  527 48331 13544 ...     2     0     0]
- [  173 12985 16797 ...     0     0     4]
+          <t>[[   38  2249  1014 ...     1     0     0]
+ [ 2814 51555 12549 ...     2     0     0]
+ [  170 11991 11315 ...     0     0     4]
  ...
  [    0     0     1 ...     0     0     0]
  [    0     0     0 ...     0     0     0]
- [    1     2     5 ...     1     0    13]]</t>
+ [    1     2     5 ...     1     0    12]]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[[   37   747   548 ...     1     0     3]
- [  527 48331 13544 ...     2     0     0]
- [  173 12985 16797 ...     0     0     4]
+          <t>[[   38  2249  1014 ...     1     0     0]
+ [ 2814 51555 12549 ...     2     0     0]
+ [  170 11991 11315 ...     0     0     4]
  ...
  [    0     0     1 ...     0     0     0]
  [    0     0     0 ...     0     0     0]
- [    1     2     5 ...     1     0    13]]</t>
+ [    1     2     5 ...     1     0    12]]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">

--- a/0_data/9_evaluation/original_data_evaluation.xlsx
+++ b/0_data/9_evaluation/original_data_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>a1_std</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>a2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>a2_std</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>a3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>a3_std</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>b_std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>c_std</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>d</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>d_std</t>
         </is>
       </c>
     </row>
@@ -475,19 +505,37 @@
         <v>72.31999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>72.31999999999999</v>
+        <v>5.03</v>
       </c>
       <c r="D2" t="n">
         <v>72.31999999999999</v>
       </c>
       <c r="E2" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="H2" t="n">
         <v>71.62</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J2" t="n">
         <v>16.06</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="L2" t="n">
         <v>15.9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.59</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +548,37 @@
         <v>11.04</v>
       </c>
       <c r="C3" t="n">
-        <v>11.04</v>
+        <v>2.58</v>
       </c>
       <c r="D3" t="n">
         <v>11.04</v>
       </c>
       <c r="E3" t="n">
-        <v>11.04</v>
+        <v>2.58</v>
       </c>
       <c r="F3" t="n">
         <v>11.04</v>
       </c>
       <c r="G3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.04</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.58</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +591,37 @@
         <v>3.43</v>
       </c>
       <c r="C4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D4" t="n">
         <v>3.43</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F4" t="n">
         <v>3.41</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.43</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.43</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.41</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +634,37 @@
         <v>17.98</v>
       </c>
       <c r="C5" t="n">
-        <v>17.98</v>
+        <v>2.85</v>
       </c>
       <c r="D5" t="n">
         <v>17.98</v>
       </c>
       <c r="E5" t="n">
-        <v>17.98</v>
+        <v>2.85</v>
       </c>
       <c r="F5" t="n">
         <v>17.98</v>
       </c>
       <c r="G5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H5" t="n">
         <v>17.98</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +677,37 @@
         <v>6.02</v>
       </c>
       <c r="C6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D6" t="n">
         <v>6.02</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F6" t="n">
         <v>6</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.02</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J6" t="n">
         <v>6.02</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L6" t="n">
         <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +720,37 @@
         <v>0.01</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D7" t="n">
         <v>0.01</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.01</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +763,37 @@
         <v>2.39</v>
       </c>
       <c r="C8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D8" t="n">
         <v>2.39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F8" t="n">
         <v>2.38</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.39</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J8" t="n">
         <v>2.39</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L8" t="n">
         <v>2.39</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="9">
@@ -663,6 +819,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>[63462 21680 97648 37916 10106 17879   154 11345  2601  3411  1355   102
   2180     9   166    57    13    40     0     4     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -676,7 +837,12 @@
      0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>[64688 21679 97650 37916 10107 17880   155 11346  2601  3410  1355   102
   2180     9   166    57    13    40     0     4     0     0     0     0
@@ -691,7 +857,12 @@
      0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>[63462 21680 97648 37916 10106 17879   154 11345  2601  3411  1355   102
   2180     9   166    57    13    40     0     4     0     0     0     0
@@ -706,20 +877,35 @@
      0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>[63462 21680 97648 37916 10106 17879   154 11345  2601  3411  1355   102
   2180     9   166    57    13    40     0     4     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>[65103 21371 96282 38016 10573 18469   172 11444  2615  3425  1377   106
   2142     9   166    57    13    40     0     4     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -734,27 +920,57 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>[24209 19707 25733 21040 24314 22628 20806 26078 18313 24557 20094 23452]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>[24348 19787 25864 21104 24433 22698 20914 26190 18425 24678 20175 23545]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>[49569   940 47325   810 52450 10581  1207 42836  1151 45806   658 17598]</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>[24209 19707 25733 21040 24314 22628 20806 26078 18313 24557 20094 23452]</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>[49849   948 47530   811 52734 10590  1211 42969  1152 46096   659 17638]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>not mean</t>
         </is>
       </c>
     </row>
@@ -771,27 +987,57 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>{'C': 24209, 'C#': 19707, 'D': 25733, 'D#': 21040, 'E': 24314, 'F': 22628, 'F#': 20806, 'G': 26078, 'G#': 18313, 'A': 24557, 'A#': 20094, 'B': 23452}</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>{'C': 24348, 'C#': 19787, 'D': 25864, 'D#': 21104, 'E': 24433, 'F': 22698, 'F#': 20914, 'G': 26190, 'G#': 18425, 'A': 24678, 'A#': 20175, 'B': 23545}</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>{'C': 49569, 'C#': 940, 'D': 47325, 'D#': 810, 'E': 52450, 'F': 10581, 'F#': 1207, 'G': 42836, 'G#': 1151, 'A': 45806, 'A#': 658, 'B': 17598}</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>{'C': 24209, 'C#': 19707, 'D': 25733, 'D#': 21040, 'E': 24314, 'F': 22628, 'F#': 20806, 'G': 26078, 'G#': 18313, 'A': 24557, 'A#': 20094, 'B': 23452}</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>{'C': 49849, 'C#': 948, 'D': 47530, 'D#': 811, 'E': 52734, 'F': 10590, 'F#': 1211, 'G': 42969, 'G#': 1152, 'A': 46096, 'A#': 659, 'B': 17638}</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>not mean</t>
         </is>
       </c>
     </row>
@@ -805,19 +1051,37 @@
         <v>124.48</v>
       </c>
       <c r="C12" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="D12" t="n">
         <v>124.48</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="F12" t="n">
         <v>125.04</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
+        <v>106.01</v>
+      </c>
+      <c r="H12" t="n">
         <v>5.94</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="J12" t="n">
         <v>124.48</v>
       </c>
-      <c r="G12" t="n">
+      <c r="K12" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="L12" t="n">
         <v>5.95</v>
+      </c>
+      <c r="M12" t="n">
+        <v>15.26</v>
       </c>
     </row>
     <row r="13">
@@ -844,6 +1108,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>[[5708  698 4373 1731  632 1139   16 1516  507 2298 4097 1403]
  [ 845 4743  923 3478 1513  431  944    9  973  560 1448 3775]
  [5083 1121 6305  808 4522 1707  631 1514   11 1401  453 2108]
@@ -858,7 +1127,12 @@
  [1152 3420 1902  410 1232   16 1285  732 1604 4875  843 5914]]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>[[5847  698 4373 1731  632 1139   16 1516  507 2298 4097 1403]
  [ 845 4823  923 3478 1513  431  944    9  973  560 1448 3775]
@@ -874,7 +1148,12 @@
  [1152 3420 1902  410 1232   16 1285  732 1604 4876  843 6006]]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>[[12667    83 12644    56  4240   660    10  3288    47  8704   137  6658]
  [   84   217   124   147    41    59    20     2    39    30    88    56]
@@ -890,7 +1169,12 @@
  [ 5333    74   796     0   748    52    54  1713    47  5708    21  3041]]</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>[[5708  698 4373 1731  632 1139   16 1516  507 2298 4097 1403]
  [ 845 4743  923 3478 1513  431  944    9  973  560 1448 3775]
@@ -906,7 +1190,12 @@
  [1152 3420 1902  410 1232   16 1285  732 1604 4875  843 5914]]</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>[[12984    83 12841    57  4222   664    10  3407    48  8602   131  6425]
  [   84   222   124   162    41    56    19     2    44    30    75    56]
@@ -922,6 +1211,11 @@
  [ 5419    74   829     0   782    62    54  1789    47  5440    21  3110]]</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -933,19 +1227,37 @@
         <v>337.4</v>
       </c>
       <c r="C14" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="D14" t="n">
         <v>337.4</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="F14" t="n">
         <v>338.93</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
+        <v>81.59</v>
+      </c>
+      <c r="H14" t="n">
         <v>337.4</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="J14" t="n">
         <v>337.4</v>
       </c>
-      <c r="G14" t="n">
+      <c r="K14" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="L14" t="n">
         <v>338.96</v>
+      </c>
+      <c r="M14" t="n">
+        <v>81.61</v>
       </c>
     </row>
     <row r="15">
@@ -958,19 +1270,37 @@
         <v>5.66</v>
       </c>
       <c r="C15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D15" t="n">
         <v>5.66</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F15" t="n">
         <v>5.64</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.66</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J15" t="n">
         <v>5.66</v>
       </c>
-      <c r="G15" t="n">
+      <c r="K15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L15" t="n">
         <v>5.64</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="16">
@@ -983,19 +1313,37 @@
         <v>3.01</v>
       </c>
       <c r="C16" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D16" t="n">
         <v>3.01</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F16" t="n">
         <v>3.02</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.01</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.01</v>
       </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L16" t="n">
         <v>3.02</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="17">
@@ -1014,13 +1362,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>[  5881  69911 103893  26294  32526   3323   6609   2130   6787   1001
    1710    671   2748    539   1178    399   2619    202    518    154
     368     68    132     18    243     20     48     10     83     17
      22      6]</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>[  6192  62885 117852  19358  32598   2578   7724   1814   6921    894
    1978    508   2764    422   1373    340   3793    152    416     87
@@ -1028,7 +1386,12 @@
      23      5]</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>[  6152  62845 117710  19319  32470   2561   7669   1811   6835    890
    1964    506   2748    422   1370    337   2604    190    559    126
@@ -1036,7 +1399,12 @@
      26      8]</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>[  6152  62845 117710  19319  32470   2561   7669   1811   6835    890
    1964    506   2748    422   1370    337   2604    190    559    126
@@ -1044,7 +1412,12 @@
      26      8]</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>[  9569  63757 105594  27270  32709   3353   6664   2136   6875   1003
    1723    675   2763    539   1179    403   3812    158    381    115
@@ -1052,6 +1425,11 @@
      19      3]</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1063,19 +1441,37 @@
         <v>4.84</v>
       </c>
       <c r="C18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D18" t="n">
         <v>6.56</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F18" t="n">
         <v>4.79</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.84</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J18" t="n">
         <v>4.84</v>
       </c>
-      <c r="G18" t="n">
+      <c r="K18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L18" t="n">
         <v>6.34</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="19">
@@ -1096,6 +1492,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>[   68 99862     0 63852     0 14378     0 56993     0  3959     0  3796
      0  1500     0 14449     0  1023     0  1154     0   603     0  1272
      0   442   226   486   196   251     0  2630     0   165    69   223
@@ -1104,7 +1505,12 @@
      3    10     0   628]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>[ 5686 96455 40206 62023 11132 14438     5 17025     1  3977  2019  3868
   1446  1517     3  3443     1  1040   527  1190   518   608     0  1312
@@ -1114,7 +1520,12 @@
      0     0     0     0]</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>[ 5656 96307 40142 61819 11104 14378     5 16864     1  3946  1989  3796
   1429  1498     3  3347     1  1023   511  1154   512   598     0  1272
@@ -1124,7 +1535,12 @@
      3     8     0   118]</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>[ 5656 96307 40142 61819 11104 14378     5 16864     1  3946  1989  3796
   1429  1498     3  3347     1  1023   511  1154   512   598     0  1272
@@ -1134,7 +1550,12 @@
      3     8     0   118]</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>[  100 93718     0 62794     0 14440     0 64799     0  3981     1  3869
   1443  1519     1 14577     0  1040   525  1192   516   608     1  1312
@@ -1144,6 +1565,11 @@
      0     0     0     0]</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1158,27 +1584,57 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>{0: 628, 1: 68, 2: 99862, 3: 0, 4: 63852, 5: 0, 6: 14378, 7: 0, 8: 56993, 9: 0, 10: 3959, 11: 0, 12: 3796, 13: 0, 14: 1500, 15: 0, 16: 14449, 17: 0, 18: 1023, 19: 0, 20: 1154, 21: 0, 22: 603, 23: 0, 24: 1272, 25: 0, 26: 442, 27: 226, 28: 486, 29: 196, 30: 251, 31: 0, 32: 2630, 33: 0, 34: 165, 35: 69, 36: 223, 37: 32, 38: 74, 39: 0, 40: 1599, 41: 0, 42: 40, 43: 34, 44: 81, 45: 24, 46: 24, 47: 0, 48: 99, 49: 0, 50: 22, 51: 18, 52: 38, 53: 8, 54: 10, 55: 0, 56: 552, 57: 0, 58: 10, 59: 8, 60: 20, 61: 3, 62: 10, 63: 0, 64: 628}</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 5686, 2: 96455, 3: 40206, 4: 62023, 5: 11132, 6: 14438, 7: 5, 8: 17025, 9: 1, 10: 3977, 11: 2019, 12: 3868, 13: 1446, 14: 1517, 15: 3, 16: 3443, 17: 1, 18: 1040, 19: 527, 20: 1190, 21: 518, 22: 608, 23: 0, 24: 1312, 25: 0, 26: 449, 27: 233, 28: 505, 29: 199, 30: 259, 31: 0, 32: 2076}</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>{0: 118, 1: 5656, 2: 96307, 3: 40142, 4: 61819, 5: 11104, 6: 14378, 7: 5, 8: 16864, 9: 1, 10: 3946, 11: 1989, 12: 3796, 13: 1429, 14: 1498, 15: 3, 16: 3347, 17: 1, 18: 1023, 19: 511, 20: 1154, 21: 512, 22: 598, 23: 0, 24: 1272, 25: 0, 26: 441, 27: 226, 28: 486, 29: 196, 30: 251, 31: 0, 32: 641, 33: 0, 34: 165, 35: 69, 36: 223, 37: 32, 38: 71, 39: 0, 40: 173, 41: 0, 42: 40, 43: 34, 44: 80, 45: 24, 46: 22, 47: 0, 48: 99, 49: 0, 50: 21, 51: 18, 52: 38, 53: 8, 54: 10, 55: 0, 56: 41, 57: 0, 58: 10, 59: 8, 60: 20, 61: 3, 62: 8, 63: 0, 64: 118}</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>{0: 118, 1: 5656, 2: 96307, 3: 40142, 4: 61819, 5: 11104, 6: 14378, 7: 5, 8: 16864, 9: 1, 10: 3946, 11: 1989, 12: 3796, 13: 1429, 14: 1498, 15: 3, 16: 3347, 17: 1, 18: 1023, 19: 511, 20: 1154, 21: 512, 22: 598, 23: 0, 24: 1272, 25: 0, 26: 441, 27: 226, 28: 486, 29: 196, 30: 251, 31: 0, 32: 641, 33: 0, 34: 165, 35: 69, 36: 223, 37: 32, 38: 71, 39: 0, 40: 173, 41: 0, 42: 40, 43: 34, 44: 80, 45: 24, 46: 22, 47: 0, 48: 99, 49: 0, 50: 21, 51: 18, 52: 38, 53: 8, 54: 10, 55: 0, 56: 41, 57: 0, 58: 10, 59: 8, 60: 20, 61: 3, 62: 8, 63: 0, 64: 118}</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 100, 2: 93718, 3: 0, 4: 62794, 5: 0, 6: 14440, 7: 0, 8: 64799, 9: 0, 10: 3981, 11: 1, 12: 3869, 13: 1443, 14: 1519, 15: 1, 16: 14577, 17: 0, 18: 1040, 19: 525, 20: 1192, 21: 516, 22: 608, 23: 1, 24: 1312, 25: 0, 26: 450, 27: 233, 28: 506, 29: 200, 30: 259, 31: 0, 32: 4103}</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>not mean</t>
         </is>
       </c>
     </row>
@@ -1201,6 +1657,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>[[    0    25     0 ...     0     0     0]
  [    0 54256     0 ...     3     0    55]
  [    0     0     0 ...     0     0     0]
@@ -1210,7 +1671,12 @@
  [    1   185     0 ...     1     0    18]]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>[[   38  2250  1017 ...     0     0    20]
  [ 2816 51609 12569 ...    51     0   217]
@@ -1221,7 +1687,12 @@
  [   31   256   131 ...     9     0   136]]</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>[[   38  2249  1014 ...     1     0     0]
  [ 2814 51555 12549 ...     2     0     0]
@@ -1232,7 +1703,12 @@
  [    1     2     5 ...     1     0    12]]</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>[[   38  2249  1014 ...     1     0     0]
  [ 2814 51555 12549 ...     2     0     0]
@@ -1243,7 +1719,12 @@
  [    1     2     5 ...     1     0    12]]</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>[[    0    28     0 ...     0     0     3]
  [    0 49297     0 ...    51     0   769]
@@ -1254,6 +1735,11 @@
  [   30   879     0 ...    13     0   204]]</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>not mean</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
